--- a/Module 5/PSP Worksheet.xlsx
+++ b/Module 5/PSP Worksheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Green\Google Drive\ASU\Summer C - 2020\SER 216 - Software Enterprise\Module 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4252E71-15DD-4105-A2E8-2E2FBAECA242}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838D998-0BFB-4671-9B53-91C8CA0F32E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C2178939-1E0D-4B22-A5A3-50A6336DBCB4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C2178939-1E0D-4B22-A5A3-50A6336DBCB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Module 2 - 05-31-2020" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="74">
   <si>
     <t>PSP Time Recording Log</t>
   </si>
@@ -246,6 +246,21 @@
   </si>
   <si>
     <t>Reset button does not work. I am not sure how to reset the GridPane</t>
+  </si>
+  <si>
+    <t>Designing Server</t>
+  </si>
+  <si>
+    <t>Coding Client</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Coding Server and Client</t>
+  </si>
+  <si>
+    <t>Javadoc and Code review</t>
   </si>
 </sst>
 </file>
@@ -399,7 +414,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -518,6 +533,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4637,7 +4655,7 @@
   <dimension ref="A1:M56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K27" sqref="K27"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4712,224 +4730,384 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="11"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="20"/>
+      <c r="A3" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B3" s="30">
+        <v>0.38538194444444446</v>
+      </c>
+      <c r="C3" s="30">
+        <v>0.43821759259259263</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="17">
+        <v>76</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
       <c r="J3" s="8">
-        <v>0</v>
-      </c>
-      <c r="K3" s="8">
-        <v>0</v>
+        <v>60</v>
+      </c>
+      <c r="K3" s="17">
+        <f>E3+E6</f>
+        <v>95</v>
       </c>
       <c r="L3" s="8">
         <f>K3+'Module 4 - 06-14-2020'!L3</f>
-        <v>374</v>
+        <v>469</v>
       </c>
       <c r="M3" s="9">
         <f>(L3/L9)</f>
-        <v>0.11221122112211221</v>
+        <v>0.12059655438416045</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="11"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="20"/>
+      <c r="A4" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B4" s="30">
+        <v>0.5108449074074074</v>
+      </c>
+      <c r="C4" s="30">
+        <v>0.52358796296296295</v>
+      </c>
+      <c r="D4" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="17">
+        <v>18</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I4" s="6" t="s">
         <v>13</v>
       </c>
       <c r="J4" s="8">
-        <v>0</v>
-      </c>
-      <c r="K4" s="8">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="K4" s="17">
+        <f>E4+E5+E10</f>
+        <v>64</v>
       </c>
       <c r="L4" s="8">
         <f>K4+'Module 4 - 06-14-2020'!L4</f>
-        <v>496</v>
+        <v>560</v>
       </c>
       <c r="M4" s="9">
         <f>(L4/L9)</f>
-        <v>0.14881488148814881</v>
+        <v>0.14399588583183337</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="11"/>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="20"/>
+      <c r="A5" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B5" s="30">
+        <v>0.52370370370370367</v>
+      </c>
+      <c r="C5" s="30">
+        <v>0.53870370370370368</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="17">
+        <v>21</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>69</v>
+      </c>
       <c r="I5" s="6" t="s">
         <v>14</v>
       </c>
       <c r="J5" s="8">
-        <v>0</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0</v>
+        <v>100</v>
+      </c>
+      <c r="K5" s="17">
+        <f>E7+E12</f>
+        <v>120</v>
       </c>
       <c r="L5" s="8">
         <f>K5+'Module 4 - 06-14-2020'!L5</f>
-        <v>2204</v>
+        <v>2324</v>
       </c>
       <c r="M5" s="9">
         <f>(L5/L9)</f>
-        <v>0.66126612661266126</v>
+        <v>0.59758292620210851</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="11"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="20"/>
+      <c r="A6" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B6" s="30">
+        <v>0.54368055555555561</v>
+      </c>
+      <c r="C6" s="30">
+        <v>0.55744212962962958</v>
+      </c>
+      <c r="D6" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="17">
+        <v>19</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>12</v>
+      </c>
       <c r="I6" s="6" t="s">
         <v>15</v>
       </c>
       <c r="J6" s="8">
-        <v>0</v>
-      </c>
-      <c r="K6" s="8">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="K6" s="17">
+        <f>E13</f>
+        <v>26</v>
       </c>
       <c r="L6" s="8">
         <f>K6+'Module 4 - 06-14-2020'!L6</f>
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="M6" s="9">
         <f>(L6/L9)</f>
-        <v>3.9003900390039005E-3</v>
+        <v>1.0028284906145539E-2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="11"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="20"/>
+      <c r="A7" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B7" s="30">
+        <v>0.59771990740740744</v>
+      </c>
+      <c r="C7" s="30">
+        <v>0.6544444444444445</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="17">
+        <v>81</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>70</v>
+      </c>
       <c r="I7" s="6" t="s">
         <v>16</v>
       </c>
       <c r="J7" s="8">
-        <v>0</v>
-      </c>
-      <c r="K7" s="8">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="K7" s="17">
+        <f>E8+E9+E11</f>
+        <v>228</v>
       </c>
       <c r="L7" s="8">
         <f>K7+'Module 4 - 06-14-2020'!L7</f>
-        <v>230</v>
+        <v>458</v>
       </c>
       <c r="M7" s="9">
         <f>(L7/L9)</f>
-        <v>6.9006900690069012E-2</v>
+        <v>0.11776806376960658</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="11"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="20"/>
+      <c r="A8" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B8" s="30">
+        <v>0.65460648148148148</v>
+      </c>
+      <c r="C8" s="30">
+        <v>0.68858796296296287</v>
+      </c>
+      <c r="D8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="17">
+        <v>48</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="I8" s="6" t="s">
         <v>17</v>
       </c>
       <c r="J8" s="8">
-        <v>0</v>
-      </c>
-      <c r="K8" s="8">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="K8" s="17">
+        <f>E14</f>
+        <v>23</v>
       </c>
       <c r="L8" s="8">
         <f>K8+'Module 4 - 06-14-2020'!L8</f>
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="M8" s="9">
         <f>(L8/L9)</f>
-        <v>4.8004800480048009E-3</v>
+        <v>1.0028284906145539E-2</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="11"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="20"/>
+      <c r="A9" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B9" s="30">
+        <v>0.70587962962962969</v>
+      </c>
+      <c r="C9" s="30">
+        <v>0.76417824074074081</v>
+      </c>
+      <c r="D9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="17">
+        <v>83</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>71</v>
+      </c>
       <c r="I9" s="6" t="s">
         <v>18</v>
       </c>
       <c r="J9" s="4">
         <f>SUM(J3:J8)</f>
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="K9" s="4">
         <f>SUM(K3:K8)</f>
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="L9" s="4">
         <f>SUM(L3:L8)</f>
-        <v>3333</v>
+        <v>3889</v>
       </c>
       <c r="M9" s="10">
         <f>SUM(M3:M8)</f>
-        <v>1</v>
+        <v>0.99999999999999989</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="11"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="20"/>
+      <c r="A10" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B10" s="30">
+        <v>0.76422453703703708</v>
+      </c>
+      <c r="C10" s="30">
+        <v>0.7818518518518518</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" s="17">
+        <v>25</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="20"/>
+      <c r="A11" s="48">
+        <v>43997</v>
+      </c>
+      <c r="B11" s="30">
+        <v>0.86986111111111108</v>
+      </c>
+      <c r="C11" s="30">
+        <v>0.93773148148148155</v>
+      </c>
+      <c r="D11" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E11" s="17">
+        <v>97</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="11"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="20"/>
+      <c r="A12" s="48">
+        <v>43998</v>
+      </c>
+      <c r="B12" s="30">
+        <v>0.34336805555555555</v>
+      </c>
+      <c r="C12" s="30">
+        <v>0.37105324074074075</v>
+      </c>
+      <c r="D12" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="17">
+        <v>39</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="11"/>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="20"/>
+      <c r="A13" s="48">
+        <v>43998</v>
+      </c>
+      <c r="B13" s="30">
+        <v>0.37136574074074075</v>
+      </c>
+      <c r="C13" s="30">
+        <v>0.38978009259259255</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="17">
+        <v>26</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>73</v>
+      </c>
       <c r="I13" s="43" t="s">
         <v>7</v>
       </c>
@@ -4939,13 +5117,27 @@
       <c r="M13" s="45"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="11"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="20"/>
+      <c r="A14" s="48">
+        <v>43998</v>
+      </c>
+      <c r="B14" s="30">
+        <v>0.40504629629629635</v>
+      </c>
+      <c r="C14" s="30">
+        <v>0.42150462962962965</v>
+      </c>
+      <c r="D14" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E14" s="17">
+        <v>23</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>17</v>
+      </c>
       <c r="I14" s="3" t="s">
         <v>20</v>
       </c>
@@ -4964,8 +5156,8 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="30"/>
       <c r="E15" s="17"/>
       <c r="F15" s="8"/>
@@ -4990,8 +5182,8 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="30"/>
       <c r="E16" s="17"/>
       <c r="F16" s="8"/>
@@ -5016,8 +5208,8 @@
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
       <c r="D17" s="30"/>
       <c r="E17" s="17"/>
       <c r="F17" s="8"/>
@@ -5042,8 +5234,8 @@
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="30"/>
       <c r="E18" s="17"/>
       <c r="F18" s="8"/>
@@ -5068,8 +5260,8 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="11"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
       <c r="D19" s="30"/>
       <c r="E19" s="17"/>
       <c r="F19" s="8"/>
@@ -5094,8 +5286,8 @@
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="11"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
       <c r="D20" s="30"/>
       <c r="E20" s="17"/>
       <c r="F20" s="8"/>
@@ -5120,8 +5312,8 @@
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="11"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
       <c r="D21" s="30"/>
       <c r="E21" s="17"/>
       <c r="F21" s="8"/>
@@ -5148,8 +5340,8 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="11"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="13"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
       <c r="D22" s="30"/>
       <c r="E22" s="17"/>
       <c r="F22" s="8"/>
@@ -5157,8 +5349,8 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
       <c r="D23" s="30"/>
       <c r="E23" s="17"/>
       <c r="F23" s="8"/>
@@ -5166,8 +5358,8 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
@@ -5181,8 +5373,8 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
       <c r="D25" s="30"/>
       <c r="E25" s="17"/>
       <c r="F25" s="8"/>
@@ -5200,8 +5392,8 @@
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
       <c r="D26" s="30"/>
       <c r="E26" s="17"/>
       <c r="F26" s="8"/>
@@ -5212,16 +5404,19 @@
       <c r="J26" s="8">
         <v>200</v>
       </c>
-      <c r="K26" s="8"/>
+      <c r="K26" s="8">
+        <f>SUM(291+14+556)</f>
+        <v>861</v>
+      </c>
       <c r="L26" s="8">
         <f>K26+'Module 4 - 06-14-2020'!L26</f>
-        <v>964</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="13"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
       <c r="D27" s="30"/>
       <c r="E27" s="17"/>
       <c r="F27" s="8"/>
@@ -5232,19 +5427,19 @@
       <c r="J27" s="8">
         <v>30</v>
       </c>
-      <c r="K27" s="29" t="e">
+      <c r="K27" s="29">
         <f>K26/(K9/60)</f>
-        <v>#DIV/0!</v>
+        <v>92.913669064748191</v>
       </c>
       <c r="L27" s="29">
         <f>L26/(L9/60)</f>
-        <v>17.353735373537354</v>
+        <v>28.156338390331708</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
       <c r="D28" s="30"/>
       <c r="E28" s="17"/>
       <c r="F28" s="8"/>
@@ -5255,19 +5450,19 @@
       <c r="J28" s="8">
         <v>10</v>
       </c>
-      <c r="K28" s="29" t="e">
+      <c r="K28" s="29">
         <f>K21/(K26/1000)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="L28" s="29">
         <f>L21/(L26/1000)</f>
-        <v>56.016597510373444</v>
+        <v>29.589041095890412</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
       <c r="D29" s="30"/>
       <c r="E29" s="17"/>
       <c r="F29" s="8"/>
@@ -5275,8 +5470,8 @@
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
-      <c r="B30" s="13"/>
-      <c r="C30" s="13"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
       <c r="D30" s="30"/>
       <c r="E30" s="17"/>
       <c r="F30" s="8"/>
@@ -5284,8 +5479,8 @@
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
       <c r="D31" s="13"/>
       <c r="E31" s="17"/>
       <c r="F31" s="1"/>
@@ -5293,8 +5488,8 @@
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
       <c r="D32" s="13"/>
       <c r="E32" s="17"/>
       <c r="F32" s="1"/>
@@ -5302,8 +5497,8 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
       <c r="D33" s="13"/>
       <c r="E33" s="17"/>
       <c r="F33" s="1"/>
@@ -5311,8 +5506,8 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="30"/>
       <c r="D34" s="13"/>
       <c r="E34" s="17"/>
       <c r="F34" s="1"/>
@@ -5320,8 +5515,8 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="13"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="30"/>
       <c r="D35" s="13"/>
       <c r="E35" s="17"/>
       <c r="F35" s="1"/>

--- a/Module 5/PSP Worksheet.xlsx
+++ b/Module 5/PSP Worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Green\Google Drive\ASU\Summer C - 2020\SER 216 - Software Enterprise\Module 5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A838D998-0BFB-4671-9B53-91C8CA0F32E2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE2FC965-63D9-4029-BB1F-3F028063875E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{C2178939-1E0D-4B22-A5A3-50A6336DBCB4}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="80">
   <si>
     <t>PSP Time Recording Log</t>
   </si>
@@ -261,6 +261,24 @@
   </si>
   <si>
     <t>Javadoc and Code review</t>
+  </si>
+  <si>
+    <t>Fixing the following defect:-5: Program does not work for the Test UI. For example: Enter 'G' for JavaFX GUI or 'T' for text UI: T | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | Begin Game Enter 'P' if you want to play against another player; enter 'C' to play against computer C Start game against computer. It is your turn. Choose a column number from 1 - 7 5 | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | |X| | | Start game against computer. | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | | |X|O| | Start game against computer. It is your turn. Choose a column number from 1 - 7 Please enter a number only! Exception in thread "main" java.util.NoSuchElementException at java.util.Scanner.throwFor(Scanner.java:862) at java.util.Scanner.next(Scanner.java:1371) at ui.Connect4TextConsole.main(Connect4TextConsole.java:110) at ui.Connect4TextConsole.runGame(Connect4TextConsole.java:136) at ui.LaunchConnect4.main(LaunchConnect4.java:16)Culprit: Connect4.java line 66</t>
+  </si>
+  <si>
+    <t>Connect4.java line 66</t>
+  </si>
+  <si>
+    <t>scanner.close() was closing out the Scanner instance, causing an error when checking for .hasNextInt()</t>
+  </si>
+  <si>
+    <t>Exception in thread "main" java.util.InputMismatchException. Produced by TextConsole, P, a, 1, 2, 5, 1, 8, 8, 0, a</t>
+  </si>
+  <si>
+    <t>Connect4TextConsole.java line 132-137</t>
+  </si>
+  <si>
+    <t>Choosing TextConsole, the Player, then a, 1, 2, 5, 1, 8, 8, 0, a, produced a java.util.InputMismatchException. Need to handle checking if user enters an integer in checkNumberValue() method</t>
   </si>
 </sst>
 </file>
@@ -414,7 +432,7 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1"/>
@@ -511,6 +529,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -535,8 +557,14 @@
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="6" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -881,22 +909,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -1271,13 +1299,13 @@
         <v>14</v>
       </c>
       <c r="G13" s="20"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="14">
@@ -1625,12 +1653,12 @@
         <v>16</v>
       </c>
       <c r="G24" s="20"/>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:13" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="14">
@@ -1854,16 +1882,16 @@
       <c r="G35" s="1"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A38" s="47" t="s">
+      <c r="A38" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B38" s="47"/>
-      <c r="C38" s="47"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="47"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="49"/>
+      <c r="D38" s="49"/>
+      <c r="E38" s="49"/>
+      <c r="F38" s="49"/>
+      <c r="G38" s="49"/>
+      <c r="H38" s="49"/>
     </row>
     <row r="39" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="21" t="s">
@@ -2252,22 +2280,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -2610,13 +2638,13 @@
       <c r="E13" s="27"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
@@ -2852,12 +2880,12 @@
       <c r="E24" s="27"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="12"/>
@@ -3010,16 +3038,16 @@
       <c r="G35" s="1"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="21" t="s">
@@ -3269,22 +3297,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3697,13 +3725,13 @@
       <c r="G13" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
@@ -4093,12 +4121,12 @@
       <c r="G24" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
@@ -4335,16 +4363,16 @@
       <c r="G35" s="20"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
@@ -4654,8 +4682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6068DB2-AE30-4ED5-8101-6DD87F95382A}">
   <dimension ref="A1:M56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4674,22 +4702,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
-      <c r="I1" s="43" t="s">
+      <c r="A1" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="44"/>
+      <c r="I1" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="45"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="47"/>
     </row>
     <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -4730,7 +4758,7 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="48">
+      <c r="A3" s="40">
         <v>43997</v>
       </c>
       <c r="B3" s="30">
@@ -4771,7 +4799,7 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="48">
+      <c r="A4" s="40">
         <v>43997</v>
       </c>
       <c r="B4" s="30">
@@ -4812,7 +4840,7 @@
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="48">
+      <c r="A5" s="40">
         <v>43997</v>
       </c>
       <c r="B5" s="30">
@@ -4853,7 +4881,7 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="48">
+      <c r="A6" s="40">
         <v>43997</v>
       </c>
       <c r="B6" s="30">
@@ -4894,7 +4922,7 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="48">
+      <c r="A7" s="40">
         <v>43997</v>
       </c>
       <c r="B7" s="30">
@@ -4935,7 +4963,7 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="48">
+      <c r="A8" s="40">
         <v>43997</v>
       </c>
       <c r="B8" s="30">
@@ -4976,7 +5004,7 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="48">
+      <c r="A9" s="40">
         <v>43997</v>
       </c>
       <c r="B9" s="30">
@@ -5018,7 +5046,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="48">
+      <c r="A10" s="40">
         <v>43997</v>
       </c>
       <c r="B10" s="30">
@@ -5041,7 +5069,7 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="48">
+      <c r="A11" s="40">
         <v>43997</v>
       </c>
       <c r="B11" s="30">
@@ -5064,7 +5092,7 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="48">
+      <c r="A12" s="40">
         <v>43998</v>
       </c>
       <c r="B12" s="30">
@@ -5087,7 +5115,7 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="48">
+      <c r="A13" s="40">
         <v>43998</v>
       </c>
       <c r="B13" s="30">
@@ -5108,16 +5136,16 @@
       <c r="G13" s="20" t="s">
         <v>73</v>
       </c>
-      <c r="I13" s="43" t="s">
+      <c r="I13" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="44"/>
-      <c r="K13" s="44"/>
-      <c r="L13" s="44"/>
-      <c r="M13" s="45"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="46"/>
+      <c r="M13" s="47"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="48">
+      <c r="A14" s="40">
         <v>43998</v>
       </c>
       <c r="B14" s="30">
@@ -5155,13 +5183,27 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="11"/>
-      <c r="B15" s="30"/>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="20"/>
+      <c r="A15" s="40">
+        <v>44001</v>
+      </c>
+      <c r="B15" s="30">
+        <v>0.7006944444444444</v>
+      </c>
+      <c r="C15" s="30">
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="D15" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="17">
+        <v>23</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="41" t="s">
+        <v>74</v>
+      </c>
       <c r="I15" s="6" t="s">
         <v>12</v>
       </c>
@@ -5180,14 +5222,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="11"/>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="20"/>
+    <row r="16" spans="1:13" ht="90" x14ac:dyDescent="0.25">
+      <c r="A16" s="40">
+        <v>44001</v>
+      </c>
+      <c r="B16" s="30">
+        <v>0.76180555555555562</v>
+      </c>
+      <c r="C16" s="30">
+        <v>0.76388888888888884</v>
+      </c>
+      <c r="D16" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E16" s="17">
+        <v>3</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>77</v>
+      </c>
       <c r="I16" s="6" t="s">
         <v>13</v>
       </c>
@@ -5203,11 +5259,11 @@
       </c>
       <c r="M16" s="9">
         <f>L16/L21</f>
-        <v>0.14814814814814814</v>
+        <v>0.14285714285714285</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="11"/>
+      <c r="A17" s="40"/>
       <c r="B17" s="30"/>
       <c r="C17" s="30"/>
       <c r="D17" s="30"/>
@@ -5218,22 +5274,22 @@
         <v>14</v>
       </c>
       <c r="J17" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K17" s="8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L17" s="8">
         <f>K17+'Module 4 - 06-14-2020'!L17</f>
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="M17" s="9">
         <f>L17/L21</f>
-        <v>0.42592592592592593</v>
+        <v>0.44642857142857145</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="11"/>
+      <c r="A18" s="40"/>
       <c r="B18" s="30"/>
       <c r="C18" s="30"/>
       <c r="D18" s="30"/>
@@ -5259,7 +5315,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
+      <c r="A19" s="40"/>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
       <c r="D19" s="30"/>
@@ -5270,7 +5326,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K19" s="8">
         <v>0</v>
@@ -5281,11 +5337,11 @@
       </c>
       <c r="M19" s="9">
         <f>L19/L21</f>
-        <v>0.42592592592592593</v>
+        <v>0.4107142857142857</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="11"/>
+      <c r="A20" s="40"/>
       <c r="B20" s="30"/>
       <c r="C20" s="30"/>
       <c r="D20" s="30"/>
@@ -5311,7 +5367,7 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
+      <c r="A21" s="40"/>
       <c r="B21" s="30"/>
       <c r="C21" s="30"/>
       <c r="D21" s="30"/>
@@ -5323,15 +5379,15 @@
       </c>
       <c r="J21" s="4">
         <f>SUM(J15:J20)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K21" s="4">
         <f>SUM(K15:K20)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L21" s="4">
         <f>SUM(L15:L20)</f>
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="M21" s="10">
         <f>SUM(M15:M20)</f>
@@ -5339,7 +5395,7 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
+      <c r="A22" s="40"/>
       <c r="B22" s="30"/>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -5348,7 +5404,7 @@
       <c r="G22" s="20"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="11"/>
+      <c r="A23" s="40"/>
       <c r="B23" s="30"/>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
@@ -5357,22 +5413,22 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="11"/>
+      <c r="A24" s="40"/>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>
       <c r="D24" s="30"/>
       <c r="E24" s="17"/>
       <c r="F24" s="8"/>
       <c r="G24" s="20"/>
-      <c r="I24" s="46" t="s">
+      <c r="I24" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="46"/>
-      <c r="K24" s="46"/>
-      <c r="L24" s="46"/>
+      <c r="J24" s="48"/>
+      <c r="K24" s="48"/>
+      <c r="L24" s="48"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="11"/>
+      <c r="A25" s="40"/>
       <c r="B25" s="30"/>
       <c r="C25" s="30"/>
       <c r="D25" s="30"/>
@@ -5391,7 +5447,7 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="11"/>
+      <c r="A26" s="40"/>
       <c r="B26" s="30"/>
       <c r="C26" s="30"/>
       <c r="D26" s="30"/>
@@ -5414,7 +5470,7 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="11"/>
+      <c r="A27" s="40"/>
       <c r="B27" s="30"/>
       <c r="C27" s="30"/>
       <c r="D27" s="30"/>
@@ -5437,7 +5493,7 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="11"/>
+      <c r="A28" s="40"/>
       <c r="B28" s="30"/>
       <c r="C28" s="30"/>
       <c r="D28" s="30"/>
@@ -5452,15 +5508,15 @@
       </c>
       <c r="K28" s="29">
         <f>K21/(K26/1000)</f>
-        <v>0</v>
+        <v>2.3228803716608595</v>
       </c>
       <c r="L28" s="29">
         <f>L21/(L26/1000)</f>
-        <v>29.589041095890412</v>
+        <v>30.684931506849317</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="11"/>
+      <c r="A29" s="40"/>
       <c r="B29" s="30"/>
       <c r="C29" s="30"/>
       <c r="D29" s="30"/>
@@ -5469,7 +5525,7 @@
       <c r="G29" s="20"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="11"/>
+      <c r="A30" s="40"/>
       <c r="B30" s="30"/>
       <c r="C30" s="30"/>
       <c r="D30" s="30"/>
@@ -5478,7 +5534,7 @@
       <c r="G30" s="20"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="11"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="30"/>
       <c r="C31" s="30"/>
       <c r="D31" s="13"/>
@@ -5487,7 +5543,7 @@
       <c r="G31" s="20"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="11"/>
+      <c r="A32" s="40"/>
       <c r="B32" s="30"/>
       <c r="C32" s="30"/>
       <c r="D32" s="13"/>
@@ -5496,7 +5552,7 @@
       <c r="G32" s="20"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A33" s="11"/>
+      <c r="A33" s="40"/>
       <c r="B33" s="30"/>
       <c r="C33" s="30"/>
       <c r="D33" s="13"/>
@@ -5505,7 +5561,7 @@
       <c r="G33" s="20"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
+      <c r="A34" s="40"/>
       <c r="B34" s="30"/>
       <c r="C34" s="30"/>
       <c r="D34" s="13"/>
@@ -5514,7 +5570,7 @@
       <c r="G34" s="20"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A35" s="11"/>
+      <c r="A35" s="40"/>
       <c r="B35" s="30"/>
       <c r="C35" s="30"/>
       <c r="D35" s="13"/>
@@ -5522,17 +5578,20 @@
       <c r="F35" s="1"/>
       <c r="G35" s="20"/>
     </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+    </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A37" s="47" t="s">
+      <c r="A37" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="47"/>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="47"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="49"/>
+      <c r="D37" s="49"/>
+      <c r="E37" s="49"/>
+      <c r="F37" s="49"/>
+      <c r="G37" s="49"/>
+      <c r="H37" s="49"/>
     </row>
     <row r="38" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
@@ -5560,184 +5619,216 @@
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A39" s="32"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A40" s="32"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="38"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+    <row r="39" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A39" s="36">
+        <v>1</v>
+      </c>
+      <c r="B39" s="51">
+        <v>44001</v>
+      </c>
+      <c r="C39" s="34">
+        <v>80</v>
+      </c>
+      <c r="D39" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="38">
+        <v>23</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="H39" s="37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A40" s="36">
+        <v>2</v>
+      </c>
+      <c r="B40" s="51">
+        <v>44001</v>
+      </c>
+      <c r="C40" s="34">
+        <v>80</v>
+      </c>
+      <c r="D40" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40" s="38">
+        <v>3</v>
+      </c>
+      <c r="G40" s="52" t="s">
+        <v>78</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A41" s="32"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="51"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
-      <c r="E41" s="35"/>
+      <c r="E41" s="34"/>
       <c r="F41" s="38"/>
       <c r="G41" s="36"/>
       <c r="H41" s="37"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A42" s="32"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="51"/>
       <c r="C42" s="34"/>
       <c r="D42" s="34"/>
-      <c r="E42" s="35"/>
+      <c r="E42" s="34"/>
       <c r="F42" s="38"/>
       <c r="G42" s="36"/>
       <c r="H42" s="37"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A43" s="32"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="51"/>
       <c r="C43" s="34"/>
       <c r="D43" s="34"/>
-      <c r="E43" s="35"/>
+      <c r="E43" s="34"/>
       <c r="F43" s="38"/>
       <c r="G43" s="36"/>
       <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A44" s="32"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="51"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
-      <c r="E44" s="35"/>
+      <c r="E44" s="34"/>
       <c r="F44" s="38"/>
       <c r="G44" s="36"/>
       <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A45" s="32"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="36"/>
+      <c r="B45" s="51"/>
       <c r="C45" s="34"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
+      <c r="E45" s="34"/>
       <c r="F45" s="38"/>
       <c r="G45" s="36"/>
       <c r="H45" s="37"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A46" s="32"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
-      <c r="E46" s="35"/>
+      <c r="E46" s="34"/>
       <c r="F46" s="38"/>
       <c r="G46" s="36"/>
       <c r="H46" s="37"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A47" s="32"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="51"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
-      <c r="E47" s="35"/>
+      <c r="E47" s="34"/>
       <c r="F47" s="38"/>
       <c r="G47" s="36"/>
       <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A48" s="32"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="51"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
-      <c r="E48" s="35"/>
+      <c r="E48" s="34"/>
       <c r="F48" s="38"/>
       <c r="G48" s="36"/>
       <c r="H48" s="37"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="32"/>
-      <c r="B49" s="33"/>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="32"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="36"/>
       <c r="H49" s="37"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="32"/>
-      <c r="B50" s="33"/>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="32"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="36"/>
       <c r="H50" s="37"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="32"/>
-      <c r="B51" s="33"/>
-      <c r="C51" s="35"/>
-      <c r="D51" s="35"/>
-      <c r="E51" s="35"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="32"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="34"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="36"/>
       <c r="H51" s="37"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="32"/>
-      <c r="B52" s="33"/>
-      <c r="C52" s="35"/>
-      <c r="D52" s="35"/>
-      <c r="E52" s="35"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="32"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="34"/>
+      <c r="D52" s="34"/>
+      <c r="E52" s="34"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="36"/>
       <c r="H52" s="37"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="32"/>
-      <c r="B53" s="33"/>
-      <c r="C53" s="35"/>
-      <c r="D53" s="35"/>
-      <c r="E53" s="35"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="32"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="34"/>
+      <c r="D53" s="34"/>
+      <c r="E53" s="34"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="36"/>
       <c r="H53" s="37"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="32"/>
-      <c r="B54" s="33"/>
-      <c r="C54" s="35"/>
-      <c r="D54" s="35"/>
-      <c r="E54" s="35"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="32"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="34"/>
+      <c r="D54" s="34"/>
+      <c r="E54" s="34"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="36"/>
       <c r="H54" s="37"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="32"/>
-      <c r="B55" s="33"/>
-      <c r="C55" s="35"/>
-      <c r="D55" s="35"/>
-      <c r="E55" s="35"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="32"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="51"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="36"/>
       <c r="H55" s="37"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="32"/>
-      <c r="B56" s="33"/>
-      <c r="C56" s="35"/>
-      <c r="D56" s="35"/>
-      <c r="E56" s="35"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="32"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="36"/>
       <c r="H56" s="37"/>
     </row>
   </sheetData>
@@ -5754,5 +5845,6 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>